--- a/biology/Médecine/Équipe_médicale_d'urgence/Équipe_médicale_d'urgence.xlsx
+++ b/biology/Médecine/Équipe_médicale_d'urgence/Équipe_médicale_d'urgence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+          <t>Équipe_médicale_d'urgence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Équipe médicale d'urgence (EMU) est une série télévisée française en 24 épisodes de 52 minutes, créée par Isabel Sebastian et réalisée par Étienne Dhaene, diffusée entre le 1er octobre 2006 et le 28 août 2010 sur France 2 et France 3 et rediffusée sur Vivolta et Série Club.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+          <t>Équipe_médicale_d'urgence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série met en scène la vie quotidienne d'une équipe du SAMU de Paris à travers des médecins, infirmiers, ambulanciers et les permanenciers rattachés à ce service d'urgence. Chaque jour, ils doivent faire face à la dureté des interventions…
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+          <t>Équipe_médicale_d'urgence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,24 +558,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Médecins
-Christian Vadim :  Dr Gaspard Peyrac, médecin d'urgence
+          <t>Médecins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Christian Vadim :  Dr Gaspard Peyrac, médecin d'urgence
 Frédéric Quiring : Dr Patrick Galvo, médecin d'urgence
-Fanny Gilles :  Dr Bénédicte Muller, médecin d'urgence
-Infirmiers
-Nanou Garcia : Brigitte Vallée, infirmière d'urgence
-Daniel Lobé : Nicolas Barbier, infirmier d'urgence
-Eve Chems de Brouwer : Angie, infirmière d'urgence
-Ambulanciers
-Dan Herzberg : Renaud Jarry, ambulancier
-Lionel Sautet : Pacheco, ambulancier
-Permanenciers
-Sophie Broustal : Caroline Jeunemaitre, standardiste à la régulation
-Irène Tassembédo : Marie-Louise, standartiste à la régulation
-Dorylia Calmel : Joséphine, standardiste à la régulation
-Autres
-Denise Chalem : Blanche Castillon, chef du service
-Yan Duffas : Dr Chastenay, interne à l'Hôpital Sainte-Marguerite</t>
+Fanny Gilles :  Dr Bénédicte Muller, médecin d'urgence</t>
         </is>
       </c>
     </row>
@@ -571,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+          <t>Équipe_médicale_d'urgence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,34 +591,291 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Infirmiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nanou Garcia : Brigitte Vallée, infirmière d'urgence
+Daniel Lobé : Nicolas Barbier, infirmier d'urgence
+Eve Chems de Brouwer : Angie, infirmière d'urgence</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Équipe_médicale_d'urgence</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ambulanciers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dan Herzberg : Renaud Jarry, ambulancier
+Lionel Sautet : Pacheco, ambulancier</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Équipe_médicale_d'urgence</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Permanenciers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sophie Broustal : Caroline Jeunemaitre, standardiste à la régulation
+Irène Tassembédo : Marie-Louise, standartiste à la régulation
+Dorylia Calmel : Joséphine, standardiste à la régulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Équipe_médicale_d'urgence</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Denise Chalem : Blanche Castillon, chef du service
+Yan Duffas : Dr Chastenay, interne à l'Hôpital Sainte-Marguerite</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Équipe_médicale_d'urgence</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Première saison (2006)
-Ça n'arrive pas qu'aux autres
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Première saison (2006)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ça n'arrive pas qu'aux autres
 Violences conjugales
 Graine de champion
 Les tueurs de la route
 Ne pas réanimer
-Overdose
-Deuxième saison (2009)
-L'enfant diamant
+Overdose</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Équipe_médicale_d'urgence</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2009)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'enfant diamant
 Pleine lune
 Attention chien gentil
 Ca passe ou ça casse
 Seins à crédits
-Paparazzi
-Troisième saison (2010)
-Le rêve indien
+Paparazzi</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Équipe_médicale_d'urgence</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Troisième saison (2010)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le rêve indien
 Back stage
 Philtre d'amour
 Je t'aime, un peu, beaucoup
 Addiction
-Eau et gaz à tous les étages
-Quatrième saison (2010)
-No Life
+Eau et gaz à tous les étages</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Équipe_médicale_d'urgence</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quipe_m%C3%A9dicale_d%27urgence</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2010)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No Life
 Brasero
 Choucroute Story
 Coup de blues
